--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/RHODE_ISLAND_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/RHODE_ISLAND_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHAMPOTÓN</t>
+          <t>Champotón</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C3">
@@ -413,12 +413,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACACOYAGUA</t>
+          <t>Acacoyagua</t>
         </is>
       </c>
       <c r="C4">
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
+          <t>Arriaga</t>
         </is>
       </c>
       <c r="C5">
@@ -444,7 +444,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C6">
@@ -457,7 +457,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C7">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C8">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C9">
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C10">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C11">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C12">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TUZANTÁN</t>
+          <t>Tuzantán</t>
         </is>
       </c>
       <c r="C13">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C14">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15">
@@ -574,12 +574,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C16">
@@ -592,7 +592,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C17">
@@ -605,7 +605,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C18">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C19">
@@ -631,7 +631,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C20">
@@ -644,7 +644,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C21">
@@ -657,7 +657,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C22">
@@ -670,7 +670,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C23">
@@ -683,7 +683,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C24">
@@ -696,7 +696,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C25">
@@ -709,7 +709,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C26">
@@ -722,12 +722,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C27">
@@ -740,7 +740,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C28">
@@ -753,12 +753,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>COATEPEC HARINAS</t>
+          <t>Coatepec Harinas</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>TECÁMAC</t>
+          <t>Tecámac</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>VALLE DE CHALCO SOLIDARIDAD</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C36">
@@ -862,12 +862,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>APASEO EL GRANDE</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C37">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C38">
@@ -893,7 +893,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>PURÍSIMA DEL RINCÓN</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C39">
@@ -906,7 +906,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C40">
@@ -919,7 +919,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C41">
@@ -932,7 +932,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C42">
@@ -945,7 +945,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C43">
@@ -958,12 +958,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C44">
@@ -976,7 +976,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>ACATEPEC</t>
+          <t>Acatepec</t>
         </is>
       </c>
       <c r="C45">
@@ -989,7 +989,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C46">
@@ -1002,7 +1002,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C47">
@@ -1015,7 +1015,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>FLORENCIO VILLARREAL</t>
+          <t>Florencio Villarreal</t>
         </is>
       </c>
       <c r="C48">
@@ -1028,7 +1028,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>HUAMUXTITLÁN</t>
+          <t>Huamuxtitlán</t>
         </is>
       </c>
       <c r="C49">
@@ -1041,7 +1041,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C50">
@@ -1054,7 +1054,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C51">
@@ -1067,7 +1067,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C52">
@@ -1080,7 +1080,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C53">
@@ -1093,7 +1093,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C54">
@@ -1106,7 +1106,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN TABLAS</t>
+          <t>Zapotitlán Tablas</t>
         </is>
       </c>
       <c r="C55">
@@ -1119,7 +1119,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C56">
@@ -1132,7 +1132,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C57">
@@ -1145,12 +1145,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ALFAJAYUCAN</t>
+          <t>Alfajayucan</t>
         </is>
       </c>
       <c r="C58">
@@ -1163,7 +1163,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>CHAPANTONGO</t>
+          <t>Chapantongo</t>
         </is>
       </c>
       <c r="C59">
@@ -1176,7 +1176,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C60">
@@ -1189,7 +1189,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>OMITLÁN DE JUÁREZ</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C61">
@@ -1202,7 +1202,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGÓN</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C62">
@@ -1215,7 +1215,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>TEPEHUACÁN DE GUERRERO</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C63">
@@ -1228,7 +1228,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>ZACUALTIPÁN DE ÁNGELES</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C64">
@@ -1241,7 +1241,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C65">
@@ -1254,7 +1254,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C66">
@@ -1267,12 +1267,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN DE GARCÍA BARRAGÁN</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C67">
@@ -1285,7 +1285,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C68">
@@ -1298,7 +1298,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C69">
@@ -1311,12 +1311,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HUIRAMBA</t>
+          <t>Huiramba</t>
         </is>
       </c>
       <c r="C70">
@@ -1329,7 +1329,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C71">
@@ -1342,7 +1342,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C72">
@@ -1355,7 +1355,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>TUZANTLA</t>
+          <t>Tuzantla</t>
         </is>
       </c>
       <c r="C73">
@@ -1368,7 +1368,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C74">
@@ -1381,7 +1381,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C75">
@@ -1394,12 +1394,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C76">
@@ -1412,7 +1412,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C77">
@@ -1425,7 +1425,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>TEMIXCO</t>
+          <t>Temixco</t>
         </is>
       </c>
       <c r="C78">
@@ -1438,7 +1438,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C79">
@@ -1451,12 +1451,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C80">
@@ -1469,7 +1469,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C81">
@@ -1482,7 +1482,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>SAN JUAN COTZOCÓN</t>
+          <t>San Juan Cotzocón</t>
         </is>
       </c>
       <c r="C82">
@@ -1495,7 +1495,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C83">
@@ -1508,7 +1508,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>SANTA CATARINA JUQUILA</t>
+          <t>Santa Catarina Juquila</t>
         </is>
       </c>
       <c r="C84">
@@ -1521,7 +1521,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C85">
@@ -1534,7 +1534,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C86">
@@ -1547,7 +1547,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C87">
@@ -1560,12 +1560,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C88">
@@ -1578,7 +1578,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C89">
@@ -1591,7 +1591,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>CHICHIQUILA</t>
+          <t>Chichiquila</t>
         </is>
       </c>
       <c r="C90">
@@ -1604,7 +1604,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C91">
@@ -1617,7 +1617,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>OCOYUCAN</t>
+          <t>Ocoyucan</t>
         </is>
       </c>
       <c r="C92">
@@ -1630,7 +1630,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>PIAXTLA</t>
+          <t>Piaxtla</t>
         </is>
       </c>
       <c r="C93">
@@ -1643,7 +1643,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C94">
@@ -1656,7 +1656,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C95">
@@ -1669,7 +1669,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>TEHUITZINGO</t>
+          <t>Tehuitzingo</t>
         </is>
       </c>
       <c r="C96">
@@ -1682,7 +1682,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C97">
@@ -1695,7 +1695,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>TOCHTEPEC</t>
+          <t>Tochtepec</t>
         </is>
       </c>
       <c r="C98">
@@ -1708,7 +1708,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C99">
@@ -1721,12 +1721,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JALPAN DE SERRA</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C100">
@@ -1739,7 +1739,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>LANDA DE MATAMOROS</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C101">
@@ -1752,7 +1752,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>PINAL DE AMOLES</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C102">
@@ -1765,7 +1765,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C103">
@@ -1778,12 +1778,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GUADALCÁZAR</t>
+          <t>Guadalcázar</t>
         </is>
       </c>
       <c r="C104">
@@ -1796,7 +1796,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C105">
@@ -1809,7 +1809,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C106">
@@ -1822,12 +1822,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C107">
@@ -1840,7 +1840,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C108">
@@ -1853,12 +1853,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C109">
@@ -1871,7 +1871,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C110">
@@ -1884,12 +1884,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C111">
@@ -1902,7 +1902,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>COMALCALCO</t>
+          <t>Comalcalco</t>
         </is>
       </c>
       <c r="C112">
@@ -1915,7 +1915,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>CUNDUACÁN</t>
+          <t>Cunduacán</t>
         </is>
       </c>
       <c r="C113">
@@ -1928,7 +1928,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C114">
@@ -1941,7 +1941,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C115">
@@ -1954,12 +1954,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ALTAMIRA</t>
+          <t>Altamira</t>
         </is>
       </c>
       <c r="C116">
@@ -1972,7 +1972,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C117">
@@ -1985,7 +1985,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C118">
@@ -1998,12 +1998,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>IXTACUIXTLA DE MARIANO MATAMOROS</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C119">
@@ -2016,7 +2016,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C120">
@@ -2029,7 +2029,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C121">
@@ -2042,12 +2042,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ACAYUCAN</t>
+          <t>Acayucan</t>
         </is>
       </c>
       <c r="C122">
@@ -2060,7 +2060,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>ANGEL R. CABADA</t>
+          <t>Angel R. Cabada</t>
         </is>
       </c>
       <c r="C123">
@@ -2073,7 +2073,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C124">
@@ -2086,7 +2086,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>HUAYACOCOTLA</t>
+          <t>Huayacocotla</t>
         </is>
       </c>
       <c r="C125">
@@ -2099,7 +2099,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>HUEYAPAN DE OCAMPO</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C126">
@@ -2112,7 +2112,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>LA ANTIGUA</t>
+          <t>La Antigua</t>
         </is>
       </c>
       <c r="C127">
@@ -2125,7 +2125,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C128">
@@ -2138,7 +2138,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C129">
@@ -2151,7 +2151,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>VEGA DE ALATORRE</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C130">
@@ -2164,7 +2164,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C131">
@@ -2177,7 +2177,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C132">
@@ -2190,12 +2190,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C133">
@@ -2208,7 +2208,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C134">
@@ -2221,7 +2221,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>VETAGRANDE</t>
+          <t>Vetagrande</t>
         </is>
       </c>
       <c r="C135">
@@ -2234,7 +2234,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C136">
@@ -2247,7 +2247,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C137">
@@ -2260,7 +2260,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C138">
@@ -2268,41 +2268,6 @@
       </c>
       <c r="D138">
         <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/RHODE_ISLAND_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/RHODE_ISLAND_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -546,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -559,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -681,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -694,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -707,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -878,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -891,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -904,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -917,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -930,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -943,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Huamuxtitlán</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1065,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1078,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1091,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1104,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -1117,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1130,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1187,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Omitlán De Juárez</t>
@@ -1200,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -1213,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -1226,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -1239,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1252,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1296,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1410,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>San Juan Cotzocón</t>
@@ -1493,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec -Dto. 22 -</t>
@@ -1506,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -1519,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -1532,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -1545,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -1667,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -1680,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -1693,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -1706,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1737,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1750,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -1763,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1794,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -1807,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1838,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1869,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1900,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -1913,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -1926,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -1939,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1970,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -1983,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2014,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -2027,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2058,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -2071,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2084,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -2097,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -2110,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -2123,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2136,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2149,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Vega De Alatorre</t>
@@ -2162,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2175,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2206,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -2219,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Vetagrande</t>
@@ -2232,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -2245,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Total</t>
